--- a/LinkedInTesting_Selenium/TestDataFiles/Login_TestData.xlsx
+++ b/LinkedInTesting_Selenium/TestDataFiles/Login_TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soubarnika.v\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soubarnika.v\source\repos\LinkedInTesting_Selenium\LinkedInTesting_Selenium\TestDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>venkatachalapathymuthu@gmail.com</t>
+    <t>muthu9629</t>
   </si>
 </sst>
 </file>
@@ -382,16 +382,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>9629459258</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2">
-        <v>9629522931</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="venkatachalapathymuthu@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LinkedInTesting_Selenium/TestDataFiles/Login_TestData.xlsx
+++ b/LinkedInTesting_Selenium/TestDataFiles/Login_TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>email</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>muthu9629</t>
+  </si>
+  <si>
+    <t>muthu96</t>
   </si>
 </sst>
 </file>
@@ -361,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,6 +392,19 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9629459258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9629459258</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="venkatachalapathymuthu@gmail.com"/>

--- a/LinkedInTesting_Selenium/TestDataFiles/Login_TestData.xlsx
+++ b/LinkedInTesting_Selenium/TestDataFiles/Login_TestData.xlsx
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +386,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>9629459258</v>
+        <v>919629459258</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -403,6 +403,14 @@
       </c>
       <c r="B4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>916385026448</v>
+      </c>
+      <c r="B5">
+        <v>9629522931</v>
       </c>
     </row>
   </sheetData>
